--- a/assets/findings/2024-02-25-findings.xlsx
+++ b/assets/findings/2024-02-25-findings.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="84" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="14" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OVER-14" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,24 +432,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="62.4" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="55.2" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="111.6" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -470,90 +471,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -575,70 +581,68 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>FA8MH2PF6YD3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0001</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2020-003</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>84.010</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>14.155</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>OVER-14</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>TITLE I GRANTS TO LOCAL EDUCATIONAL AGENCIES</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>132683</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>MORTGAGE INSURANCE FOR THE PURCHASE OR REFINANCING OF EXISTING MULTIFAMILY HOUSING PROJECTS</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>5803394</v>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -651,7 +655,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -673,70 +680,68 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>FA8MH2PF6YD3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>AWARD-0002</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2020-003</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>84.010</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>14.195</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>OVER-14</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>TITLE I GRANTS TO LOCAL EDUCATIONAL AGENCIES</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>391353</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SECTION 8 HOUSING ASSISTANCE PAYMENTS PROGRAM</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1674145</v>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -749,7 +754,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -772,7 +780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,24 +791,25 @@
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="62.4" customWidth="1" min="3" max="3"/>
-    <col width="20.4" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="9.6" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="55.2" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="13.2" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="26.4" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="21.6" customWidth="1" min="15" max="15"/>
-    <col width="26.4" customWidth="1" min="16" max="16"/>
-    <col width="32.4" customWidth="1" min="17" max="17"/>
-    <col width="22.8" customWidth="1" min="18" max="18"/>
-    <col width="25.2" customWidth="1" min="19" max="19"/>
-    <col width="22.8" customWidth="1" min="20" max="20"/>
-    <col width="32.4" customWidth="1" min="21" max="21"/>
+    <col width="16.8" customWidth="1" min="4" max="4"/>
+    <col width="20.4" customWidth="1" min="5" max="5"/>
+    <col width="21.6" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="111.6" customWidth="1" min="9" max="9"/>
+    <col width="20.4" customWidth="1" min="10" max="10"/>
+    <col width="13.2" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="26.4" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="25.2" customWidth="1" min="15" max="15"/>
+    <col width="21.6" customWidth="1" min="16" max="16"/>
+    <col width="26.4" customWidth="1" min="17" max="17"/>
+    <col width="32.4" customWidth="1" min="18" max="18"/>
+    <col width="22.8" customWidth="1" min="19" max="19"/>
+    <col width="25.2" customWidth="1" min="20" max="20"/>
+    <col width="22.8" customWidth="1" min="21" max="21"/>
+    <col width="32.4" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -821,90 +830,95 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>auditee_uei</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>award_reference</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>reference_number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>aln</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>cog_over</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>federal_program_name</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>amount_expended</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>is_direct</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>is_major</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_passthrough_award</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>passthrough_amount</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>is_modified_opinion</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>is_other_matters</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>is_material_weakness</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_significant_deficiency</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>is_other_findings</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>is_questioned_costs</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>is_repeat_finding</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>prior_finding_ref_numbers</t>
         </is>
@@ -926,70 +940,68 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>FA8MH2PF6YD3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>AWARD-0001</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2020-003</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>84.010</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>14.155</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>OVER-14</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>TITLE I GRANTS TO LOCAL EDUCATIONAL AGENCIES</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>132683</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>MORTGAGE INSURANCE FOR THE PURCHASE OR REFINANCING OF EXISTING MULTIFAMILY HOUSING PROJECTS</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>5803394</v>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -1002,7 +1014,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1024,70 +1039,68 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>FA8MH2PF6YD3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>AWARD-0002</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2020-003</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>84.010</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>14.195</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>OVER-14</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>TITLE I GRANTS TO LOCAL EDUCATIONAL AGENCIES</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>391353</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q3" s="1" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SECTION 8 HOUSING ASSISTANCE PAYMENTS PROGRAM</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1674145</v>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -1100,7 +1113,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>

--- a/assets/findings/2024-02-25-findings.xlsx
+++ b/assets/findings/2024-02-25-findings.xlsx
@@ -622,8 +622,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -655,8 +657,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -721,8 +725,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -754,8 +760,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -981,8 +989,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -1014,8 +1024,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -1080,8 +1092,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -1113,8 +1127,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
